--- a/puzzle3 results.xlsx
+++ b/puzzle3 results.xlsx
@@ -627,7 +627,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -641,11 +641,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Puzzle3 Fitness Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of 5 runs</a:t>
+              <a:t>Puzzle3 Score Average of 5 runs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -664,7 +660,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -687,15 +683,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'puzzle3 average'!$E$1</c:f>
+              <c:f>'puzzle3 average'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>       Most Fit Fitness</c:v>
+                  <c:v>         Most Fit Score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -703,7 +699,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1479,765 +1475,765 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'puzzle3 average'!$E$2:$E$253</c:f>
+              <c:f>'puzzle3 average'!$F$2:$F$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
-                  <c:v>113.6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.6</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.6</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.6</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.19999999999999</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159.19999999999999</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168.6</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>172.2</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>173.2</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>174.2</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174.2</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>174.2</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.2</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.2</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174.2</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>175.2</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>175.2</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.2</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>176.2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>182</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191.4</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>191.4</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>194.4</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>194.4</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>199.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,15 +2241,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'puzzle3 average'!$H$1</c:f>
+              <c:f>'puzzle3 average'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>     Median Fit Fitness</c:v>
+                  <c:v>       Median Fit Score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2261,7 +2257,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3037,765 +3033,765 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'puzzle3 average'!$H$2:$H$253</c:f>
+              <c:f>'puzzle3 average'!$I$2:$I$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
-                  <c:v>-206.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-189.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-161.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-142.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-128.19999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-105.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-101.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-97.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-97.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-95.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-85.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-69.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-67.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-58.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-50.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-48.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-47.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-47.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-47.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-47.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-47.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-46.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-45.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-37.799999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-36.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-35.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-34.200000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-21.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-12.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-12.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-8.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="81">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="82">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>12.2</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="85">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>14.8</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>35.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>62.6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>82.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>90.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>90.4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>91.4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105.8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>113.6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>120.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>150.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>150.6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>150.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>150.6</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>151.6</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>158.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>160.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>160.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>162.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>163.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>166.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>167.4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>167.4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>167.4</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>167.4</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>167.4</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>168.4</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>169.4</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>174.2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>174.2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>174.2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>181.6</c:v>
-                </c:pt>
                 <c:pt idx="102">
-                  <c:v>182.6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>183.6</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>183.6</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>183.6</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>184.6</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>184.6</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>184.6</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>184.6</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>185.6</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>186.6</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>187.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>187.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>187.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>187.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>187.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>187.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>192.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>193.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>198.2</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>198.2</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>198.2</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>198.2</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>203</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>204</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>204</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>204</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>205</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>206</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>207</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>208</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>209</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>208.75</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>208.75</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>208.75</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>208.75</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>208.75</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,15 +3799,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="8"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'puzzle3 average'!$K$1</c:f>
+              <c:f>'puzzle3 average'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>      Worst Fit Fitness</c:v>
+                  <c:v>        Worst Fit Score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3819,7 +3815,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -4597,765 +4593,765 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'puzzle3 average'!$K$2:$K$253</c:f>
+              <c:f>'puzzle3 average'!$L$2:$L$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
-                  <c:v>-485.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-365.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-320.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-306.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-257.39999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-276.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-250.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-200.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-245.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-252.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-253.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-233.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-250.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-224.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-242.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-225.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-195.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-211.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-231.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-211.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-237.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-190.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-196.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-236.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-210.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-213.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-204.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-206.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-219.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-220.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-207.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-200.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-213.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-208.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-196</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-192.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-211.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-213.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-231.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-226.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-214.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-231.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-245.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-205.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-213</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-213.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-180.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-184.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-196.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-199.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-244.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-229.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-199.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-235.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-233</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-224.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-178.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-187</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-171.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-226.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-209.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-226.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-170.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-219.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-188.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-168.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-222.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-194.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-219.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-197.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-237.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-196.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-247.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-217</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-221.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-181</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-166.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-193.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-204.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-166</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-213.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-225</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-234.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-197.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-187.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-186.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-206.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-237.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-224.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-181.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-181</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-175.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-193.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-204.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-213.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-195</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-208.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-229.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-274.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-229.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-194.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-173.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-224.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-185.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-202.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-174.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-227.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-181.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-172.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-197.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-235.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-182.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-235</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-214.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-204.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-209.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-246.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-236.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-204.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-178.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-235.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-173.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-203.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-200.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-206.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-260.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-193.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-228</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-206.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-225</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-254.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-197.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-203.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-194.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-194.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-175.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-213.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-163.19999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-214.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-218.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-211.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-181.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-198.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-183.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-196.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-220.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-192.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-242</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-173.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-190</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-174.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-192.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-213.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-224.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-231.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-187.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-199.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-244.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-214.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-196.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-191.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-236.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-199.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-191.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-209.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-217.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-235.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-203.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-191.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-220.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-182.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-210.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-170</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-180.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-237.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-196.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-199.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-224.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-212.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-215</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-170.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-187.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-216.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-181.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-202.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-227.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-189.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-195.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-225.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-194.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-200.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-186</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-148</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-244.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-231.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-198.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-173.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-229.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-206.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-176.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-279.39999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-188.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-192.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-171.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-218.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-166.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-239.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-196.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-191.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-250.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-201.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-194.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-209</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-194.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-272.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-218.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-169.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-201.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-191.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-190.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-159.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-208.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-147.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-271</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-185</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,11 +5367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1458450992"/>
-        <c:axId val="1458446640"/>
+        <c:axId val="-1838291888"/>
+        <c:axId val="-1838301136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1458450992"/>
+        <c:axId val="-1838291888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +5384,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5421,7 +5417,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5440,7 +5436,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5459,7 +5455,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5474,7 +5470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458446640"/>
+        <c:crossAx val="-1838301136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5482,7 +5478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1458446640"/>
+        <c:axId val="-1838301136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,7 +5505,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5523,7 +5519,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Fitness</a:t>
+                  <a:t>Score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5542,7 +5538,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5574,7 +5570,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5589,7 +5585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458450992"/>
+        <c:crossAx val="-1838291888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5617,7 +5613,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5657,7 +5653,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5691,7 +5687,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5705,11 +5701,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Puzzle3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Score Average of 5 runs</a:t>
+              <a:t>Puzzle3 Fitness Average of 5 runs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5728,7 +5720,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5751,15 +5743,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'puzzle3 average'!$F$1</c:f>
+              <c:f>'puzzle3 average'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>         Most Fit Score</c:v>
+                  <c:v>       Most Fit Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5767,7 +5759,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6543,765 +6535,765 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'puzzle3 average'!$F$2:$F$253</c:f>
+              <c:f>'puzzle3 average'!$E$2:$E$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>113.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>154.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>154.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>154.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.8</c:v>
+                  <c:v>158.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>159.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.6</c:v>
+                  <c:v>168.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.2</c:v>
+                  <c:v>172.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.4</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.8</c:v>
+                  <c:v>175.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.8</c:v>
+                  <c:v>175.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.8</c:v>
+                  <c:v>175.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14</c:v>
+                  <c:v>176.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>191.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>191.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.2</c:v>
+                  <c:v>194.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.2</c:v>
+                  <c:v>194.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18</c:v>
+                  <c:v>199.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7309,15 +7301,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'puzzle3 average'!$I$1</c:f>
+              <c:f>'puzzle3 average'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>       Median Fit Score</c:v>
+                  <c:v>     Median Fit Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7325,7 +7317,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8101,765 +8093,765 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'puzzle3 average'!$I$2:$I$253</c:f>
+              <c:f>'puzzle3 average'!$H$2:$H$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-206.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-189.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-161.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-142.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-128.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-105.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-101.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-97.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-97.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-95.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-85.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-69.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-67.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-58.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-50.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-48.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-47.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-47.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-47.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-47.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-47.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-46.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-45.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-36.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-35.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>-34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>-21.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>-18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-12.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-12.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>-8.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>-8.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>-7.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.8</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.8</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.8</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.4</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>62.6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.6</c:v>
+                  <c:v>81.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.8</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.8</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.6</c:v>
+                  <c:v>90.2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.6</c:v>
+                  <c:v>90.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.8</c:v>
+                  <c:v>91.4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>105.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.4</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10</c:v>
+                  <c:v>113.6</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.6</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.8</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.8</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11</c:v>
+                  <c:v>120.6</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.4</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>14.6</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>14.6</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.8</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>150.6</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>150.6</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>150.6</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>150.6</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>151.6</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.2</c:v>
+                  <c:v>158.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.2</c:v>
+                  <c:v>160.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.2</c:v>
+                  <c:v>160.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11.6</c:v>
+                  <c:v>162.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>11.8</c:v>
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.2</c:v>
+                  <c:v>166.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.4</c:v>
+                  <c:v>167.4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.4</c:v>
+                  <c:v>167.4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.4</c:v>
+                  <c:v>167.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.4</c:v>
+                  <c:v>167.4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12.4</c:v>
+                  <c:v>167.4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.6</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.6</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.6</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.6</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.6</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12.6</c:v>
+                  <c:v>168.4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12.8</c:v>
+                  <c:v>169.4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>13.6</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.4</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.8</c:v>
+                  <c:v>181.6</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15</c:v>
+                  <c:v>182.6</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>15.2</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>15.2</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>15.2</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>15.4</c:v>
+                  <c:v>184.6</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>15.4</c:v>
+                  <c:v>184.6</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>15.4</c:v>
+                  <c:v>184.6</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>15.4</c:v>
+                  <c:v>184.6</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>15.6</c:v>
+                  <c:v>185.6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>15.8</c:v>
+                  <c:v>186.6</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>16</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>16</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>16</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>16</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>16</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>16</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>16.8</c:v>
+                  <c:v>192.4</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>17</c:v>
+                  <c:v>193.4</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>17.8</c:v>
+                  <c:v>198.2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>17.8</c:v>
+                  <c:v>198.2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>17.8</c:v>
+                  <c:v>198.2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>17.8</c:v>
+                  <c:v>198.2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>18.8</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>18.8</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>18.8</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>19</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>19.2</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>19.8</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>19.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>19.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>19.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>19.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>19.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>20</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8867,15 +8859,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="7"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'puzzle3 average'!$L$1</c:f>
+              <c:f>'puzzle3 average'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>        Worst Fit Score</c:v>
+                  <c:v>      Worst Fit Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8883,7 +8875,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -9661,765 +9653,765 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'puzzle3 average'!$L$2:$L$253</c:f>
+              <c:f>'puzzle3 average'!$K$2:$K$253</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-485.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-365.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-320.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-306.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-257.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-276.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-250.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-200.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-245.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-252.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-253.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-233.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-250.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-198</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-224.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-242.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-225.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-195.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-211.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-231.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-211.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-237.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-190.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-179</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-196.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-236.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-218</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-210.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-213.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-204.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-206.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-219.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>-220.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>-171</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>-207.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-200.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-213.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>-208.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>-196</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>-191</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>-192.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>-211.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>-241</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>-213.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>-231.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>-226.2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>-214.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>-231.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>-245.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>-205.4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>-213</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>-213.8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>-180.8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>-184.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>-196.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>-199.4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>-244.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>-229.6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>-199.6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>-235.4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>-233</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>-224.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>-178.4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>-187</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>-171.2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>-226.2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>-209.6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>-226.6</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>-170.8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>-219.4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>-188.6</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>-168.2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>-232</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>-222.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>-194.6</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>-219.8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>-197.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>-237.6</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>-196.8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>-247.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>-217</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>-221.2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>-181</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>-166.2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>-193.6</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>-204.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>-183</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>-203</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>-166</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>-213.6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>-225</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>-234.4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>-197.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>-187.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>-194</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>-223</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>-186.2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>-206.2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>-237.4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>-224.6</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>-181.6</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>-181</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>-175.6</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>-193.8</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>-204.2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>-213.8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>-195</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>-208.8</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>-229.4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>-274.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>-229.6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>-194.4</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>-199</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>-173.8</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>-224.2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>-185.2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>-202.6</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>-174.2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>-227.2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>-181.2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>-172.2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>-197.2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>-235.2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>-203</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>-182.2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>-235</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>-214.2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>-214</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>-204.8</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>-209.4</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>-246.4</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>-236.2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>-204.2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>-178.2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>-235.2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>-173.8</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>-203.4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>-200.6</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>-206.4</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>-260.2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>-193.4</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>-228</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>-179</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>-206.8</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>-225</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>-254.2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>-197.2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>-203.6</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>-194.6</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>-194.4</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>-175.6</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>-213.8</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>-163.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>-214.8</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>-218.4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>-211.4</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>-181.6</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>-198.6</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>-183.4</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0</c:v>
+                  <c:v>-196.4</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>-220.6</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>-192.6</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>-242</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>-173.4</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>-190</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>-174.4</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0</c:v>
+                  <c:v>-192.8</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0</c:v>
+                  <c:v>-213.2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0</c:v>
+                  <c:v>-224.6</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>-231.8</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>-187.4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>-193</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>-199.6</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>-244.8</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>-194</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>-214.8</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>-196.2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>-191.2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>-236.8</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>-199.2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>-191.4</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>-209.6</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>-217.8</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>-235.8</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>-203.8</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>-191.6</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>-220.6</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>-182.4</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>-210.2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>-180.8</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>-183</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>-237.6</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>-196.8</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>-199.4</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>-224.4</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>-212.2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>-215</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>-170.8</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>-187.4</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>-216.4</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>-181.4</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>-202.2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>-227.4</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>-189.4</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>-195.2</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>-225.4</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>-194.2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>-200.6</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>-239</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>-186</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>-148</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>-244.4</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>-214</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>-231.4</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>-198.2</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>-173.6</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>-229.8</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>-206.6</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>-176.4</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>-279.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>-188.8</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>-192.2</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>-171.8</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>-218.6</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>-166.8</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>-239.4</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>-210</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>-196.6</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>-193</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>-191.6</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>-250.6</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>-201.8</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>-194.8</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>-209</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>-171</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>-194.6</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>-272.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>-218.4</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>-169.2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>-201.8</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>-191.75</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>-190.25</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>-159.25</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>-208.75</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>-147.5</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>-271</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>-140</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0</c:v>
+                  <c:v>-179</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>-185</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0</c:v>
+                  <c:v>-214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10435,11 +10427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1137658224"/>
-        <c:axId val="1137659312"/>
+        <c:axId val="-1838303856"/>
+        <c:axId val="-1838301680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1137658224"/>
+        <c:axId val="-1838303856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10452,7 +10444,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -10485,7 +10477,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -10504,7 +10496,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10523,7 +10515,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10538,7 +10530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1137659312"/>
+        <c:crossAx val="-1838301680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10546,7 +10538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1137659312"/>
+        <c:axId val="-1838301680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10573,7 +10565,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -10587,7 +10579,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Score</a:t>
+                  <a:t>Fitness</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10606,7 +10598,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -10638,7 +10630,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10653,7 +10645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1137658224"/>
+        <c:crossAx val="-1838303856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10681,7 +10673,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10721,7 +10713,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -11850,20 +11842,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1309686</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11880,20 +11872,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1359338</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12177,7 +12169,7 @@
   <dimension ref="A1:M270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/puzzle3 results.xlsx
+++ b/puzzle3 results.xlsx
@@ -12,19 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
-    <sheet name="puzzle3 average" sheetId="9" r:id="rId1"/>
-    <sheet name="puzzle3 run1 (5)" sheetId="8" r:id="rId2"/>
-    <sheet name="puzzle3 run1 (4)" sheetId="7" r:id="rId3"/>
-    <sheet name="puzzle3 run1 (3)" sheetId="6" r:id="rId4"/>
-    <sheet name="puzzle3 run1 (2)" sheetId="5" r:id="rId5"/>
-    <sheet name="puzzle3 run1" sheetId="1" r:id="rId6"/>
+    <sheet name="puzzle3 without elitism run1" sheetId="11" r:id="rId1"/>
+    <sheet name="puzzle3 average" sheetId="9" r:id="rId2"/>
+    <sheet name="puzzle3 run1 (5)" sheetId="8" r:id="rId3"/>
+    <sheet name="puzzle3 run1 (4)" sheetId="7" r:id="rId4"/>
+    <sheet name="puzzle3 run1 (3)" sheetId="6" r:id="rId5"/>
+    <sheet name="puzzle3 run1 (2)" sheetId="5" r:id="rId6"/>
+    <sheet name="puzzle3 run1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
   <si>
     <t xml:space="preserve">     Current Generation</t>
   </si>
@@ -5367,11 +5368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1838291888"/>
-        <c:axId val="-1838301136"/>
+        <c:axId val="-1140459440"/>
+        <c:axId val="-1140470864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1838291888"/>
+        <c:axId val="-1140459440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,7 +5471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1838301136"/>
+        <c:crossAx val="-1140470864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5478,7 +5479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1838301136"/>
+        <c:axId val="-1140470864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5585,7 +5586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1838291888"/>
+        <c:crossAx val="-1140459440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10427,11 +10428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1838303856"/>
-        <c:axId val="-1838301680"/>
+        <c:axId val="-1140470320"/>
+        <c:axId val="-1141870768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1838303856"/>
+        <c:axId val="-1140470320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10530,7 +10531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1838301680"/>
+        <c:crossAx val="-1141870768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10538,7 +10539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1838301680"/>
+        <c:axId val="-1141870768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10645,7 +10646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1838303856"/>
+        <c:crossAx val="-1140470320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12166,9 +12167,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -23591,7 +23726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M253"/>
   <sheetViews>
@@ -31783,7 +31918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M253"/>
   <sheetViews>
@@ -39975,7 +40110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M253"/>
   <sheetViews>
@@ -48167,7 +48302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M253"/>
   <sheetViews>
@@ -56359,12 +56494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
